--- a/Walmart_New_Fulfillment.xlsx
+++ b/Walmart_New_Fulfillment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcederstrom/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcederstrom/PythonProjects/Research Model Execution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8515E793-6F11-B041-B372-9DA382C3E685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBD5C58-EB24-A94E-9462-3947742F91AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="1140" windowWidth="38920" windowHeight="17440" xr2:uid="{99DAE98D-965B-6041-907B-CB2246BAD094}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <t>entity_name</t>
   </si>
   <si>
-    <t>Addresss</t>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -621,14 +621,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1007,7 +1006,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1163,7 @@
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
